--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CE/10/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CE/10/seed1/result_data_RandomForest.xlsx
@@ -502,7 +502,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-11.98120000000001</v>
+        <v>-12.1272</v>
       </c>
       <c r="D4" t="n">
         <v>-8.23</v>
@@ -553,13 +553,13 @@
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-13.225</v>
+        <v>-12.9755</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>15.7338</v>
+        <v>15.39170000000001</v>
       </c>
     </row>
     <row r="8">
@@ -695,7 +695,7 @@
         <v>-10.04</v>
       </c>
       <c r="E15" t="n">
-        <v>16.27370000000001</v>
+        <v>16.2416</v>
       </c>
     </row>
     <row r="16">
@@ -706,7 +706,7 @@
         <v>3.96</v>
       </c>
       <c r="C16" t="n">
-        <v>-13.7743</v>
+        <v>-14.018</v>
       </c>
       <c r="D16" t="n">
         <v>-9.27</v>
@@ -797,7 +797,7 @@
         <v>-6.74</v>
       </c>
       <c r="E21" t="n">
-        <v>17.1566</v>
+        <v>17.11819999999999</v>
       </c>
     </row>
     <row r="22">
@@ -814,7 +814,7 @@
         <v>-6.8</v>
       </c>
       <c r="E22" t="n">
-        <v>17.0496</v>
+        <v>17.1001</v>
       </c>
     </row>
     <row r="23">
@@ -831,7 +831,7 @@
         <v>-8.59</v>
       </c>
       <c r="E23" t="n">
-        <v>16.09249999999998</v>
+        <v>16.13089999999998</v>
       </c>
     </row>
     <row r="24">
@@ -910,7 +910,7 @@
         <v>5.47</v>
       </c>
       <c r="C28" t="n">
-        <v>-13.28889999999999</v>
+        <v>-12.5239</v>
       </c>
       <c r="D28" t="n">
         <v>-7.75</v>
@@ -927,7 +927,7 @@
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-11.292</v>
+        <v>-11.13940000000001</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -978,7 +978,7 @@
         <v>3.16</v>
       </c>
       <c r="C32" t="n">
-        <v>-13.0444</v>
+        <v>-13.34150000000001</v>
       </c>
       <c r="D32" t="n">
         <v>-8.69</v>
@@ -1018,7 +1018,7 @@
         <v>-7.27</v>
       </c>
       <c r="E34" t="n">
-        <v>17.3903</v>
+        <v>17.37710000000001</v>
       </c>
     </row>
     <row r="35">
@@ -1114,7 +1114,7 @@
         <v>10.75</v>
       </c>
       <c r="C40" t="n">
-        <v>-12.9556</v>
+        <v>-12.8739</v>
       </c>
       <c r="D40" t="n">
         <v>-7.23</v>
@@ -1171,7 +1171,7 @@
         <v>-6.95</v>
       </c>
       <c r="E43" t="n">
-        <v>17.46020000000001</v>
+        <v>17.56720000000001</v>
       </c>
     </row>
     <row r="44">
@@ -1205,7 +1205,7 @@
         <v>-7.87</v>
       </c>
       <c r="E45" t="n">
-        <v>16.42769999999999</v>
+        <v>16.43799999999999</v>
       </c>
     </row>
     <row r="46">
@@ -1290,7 +1290,7 @@
         <v>-8.029999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>16.39770000000001</v>
+        <v>16.32049999999999</v>
       </c>
     </row>
     <row r="51">
@@ -1307,7 +1307,7 @@
         <v>-7.18</v>
       </c>
       <c r="E51" t="n">
-        <v>17.426</v>
+        <v>17.2443</v>
       </c>
     </row>
     <row r="52">
@@ -1318,7 +1318,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.117</v>
+        <v>-11.1536</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1403,7 +1403,7 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.73179999999999</v>
+        <v>-13.73309999999999</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1556,13 +1556,13 @@
         <v>5.18</v>
       </c>
       <c r="C66" t="n">
-        <v>-11.4215</v>
+        <v>-11.3441</v>
       </c>
       <c r="D66" t="n">
         <v>-7.15</v>
       </c>
       <c r="E66" t="n">
-        <v>17.25600000000001</v>
+        <v>17.23860000000001</v>
       </c>
     </row>
     <row r="67">
@@ -1579,7 +1579,7 @@
         <v>-6.43</v>
       </c>
       <c r="E67" t="n">
-        <v>17.16230000000001</v>
+        <v>17.15600000000002</v>
       </c>
     </row>
     <row r="68">
@@ -1783,7 +1783,7 @@
         <v>-4.8</v>
       </c>
       <c r="E79" t="n">
-        <v>18.38670000000002</v>
+        <v>18.19290000000002</v>
       </c>
     </row>
     <row r="80">
@@ -1868,7 +1868,7 @@
         <v>-8.34</v>
       </c>
       <c r="E84" t="n">
-        <v>16.4646</v>
+        <v>16.43369999999999</v>
       </c>
     </row>
     <row r="85">
@@ -2004,7 +2004,7 @@
         <v>-5.32</v>
       </c>
       <c r="E92" t="n">
-        <v>18.44660000000002</v>
+        <v>18.35810000000002</v>
       </c>
     </row>
     <row r="93">
@@ -2089,7 +2089,7 @@
         <v>-7.59</v>
       </c>
       <c r="E97" t="n">
-        <v>16.55299999999999</v>
+        <v>16.45809999999999</v>
       </c>
     </row>
     <row r="98">
@@ -2134,7 +2134,7 @@
         <v>5.09</v>
       </c>
       <c r="C100" t="n">
-        <v>-12.95099999999999</v>
+        <v>-12.5334</v>
       </c>
       <c r="D100" t="n">
         <v>-7.71</v>
